--- a/MakeExcelFile/py/ExcelFile.xlsx
+++ b/MakeExcelFile/py/ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Billet_Casting\MakeExcelFile\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C44170C-D5D7-432F-B500-66F17B18E9E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74C82C-EF99-444F-AE71-0BA44B7E502E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Casting!$A$1:$R$66</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,9 +401,6 @@
     <t>TG nung kết thúc</t>
   </si>
   <si>
-    <t>φ229(9inch)</t>
-  </si>
-  <si>
     <t>Al-Si (%Si)</t>
   </si>
   <si>
@@ -446,6 +443,51 @@
   <si>
     <t>Nhôm Al 99.7% 
 ⑥</t>
+  </si>
+  <si>
+    <t>Đường kính</t>
+  </si>
+  <si>
+    <t>Mã sx</t>
+  </si>
+  <si>
+    <t>Ngày sx</t>
+  </si>
+  <si>
+    <t>Pl đùn</t>
+  </si>
+  <si>
+    <t>Pl đúc</t>
+  </si>
+  <si>
+    <t>Ingot</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Mục kiểm tra</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1350,511 +1392,514 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2373,7 +2418,7 @@
   <dimension ref="A1:AJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="A63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2389,45 +2434,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
     </row>
     <row r="2" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
       <c r="N2" s="13"/>
       <c r="O2" s="12" t="s">
         <v>17</v>
@@ -2437,81 +2482,103 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="93"/>
+      <c r="H3" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="93"/>
+      <c r="J3" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="53" t="s">
+      <c r="M3" s="96"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="53" t="s">
+      <c r="P3" s="191"/>
+      <c r="Q3" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="55"/>
+      <c r="R3" s="192"/>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
+      <c r="A4" s="197">
+        <f>input!C1</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="200">
+        <f>input!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="201"/>
+      <c r="F4" s="94">
+        <f>input!C3</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="170">
+        <f>input!C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="171"/>
+      <c r="J4" s="170">
+        <f>input!C5</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="171"/>
+      <c r="L4" s="97">
+        <f>input!C6</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="88">
+        <f>input!C7</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="124">
+        <f>input!C8</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="193"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
       <c r="N5" s="9"/>
       <c r="O5" s="5" t="s">
         <v>35</v>
@@ -2524,61 +2591,61 @@
       <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="93"/>
+      <c r="H6" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="93"/>
+      <c r="J6" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52" t="s">
+      <c r="P6" s="93"/>
+      <c r="Q6" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="61"/>
+      <c r="R6" s="131"/>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="72"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="172"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -2591,13 +2658,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
       <c r="N8" s="23"/>
       <c r="O8" s="12" t="s">
         <v>17</v>
@@ -2608,193 +2675,217 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77" t="s">
+      <c r="I9" s="100"/>
+      <c r="J9" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77" t="s">
+      <c r="K9" s="100"/>
+      <c r="L9" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77" t="s">
+      <c r="M9" s="100"/>
+      <c r="N9" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77" t="s">
+      <c r="O9" s="100"/>
+      <c r="P9" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="186" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="183" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="184"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176">
+        <f>input!C9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="176"/>
+      <c r="D10" s="167">
+        <f>input!C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167">
+        <f>input!C11</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167">
+        <f>input!C12</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167">
+        <f>input!C13</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167">
+        <f>input!C14</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167">
+        <f>input!C15</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="167"/>
+      <c r="P10" s="61">
+        <f>input!C16</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="180"/>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="185"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="128"/>
+        <v>120</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="128"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="128"/>
+        <v>121</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="138"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102" t="s">
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
       <c r="N16" s="12" t="s">
         <v>38</v>
       </c>
@@ -2804,32 +2895,32 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="27" customHeight="1">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="108" t="s">
+      <c r="F17" s="164"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="108"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" s="104"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="110"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="76"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="153"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
@@ -2848,32 +2939,32 @@
       <c r="AJ17" s="32"/>
     </row>
     <row r="18" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="95" t="s">
+      <c r="F18" s="159"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="98" t="s">
+      <c r="J18" s="65"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="98"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="111"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="154"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
@@ -2902,13 +2993,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="94" t="s">
+      <c r="I19" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
       <c r="N19" s="31"/>
       <c r="O19" s="12" t="s">
         <v>17</v>
@@ -2934,124 +3025,124 @@
       <c r="AJ19" s="32"/>
     </row>
     <row r="20" spans="1:36" ht="27" customHeight="1">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="171" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="104" t="s">
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="173"/>
-      <c r="U20" s="169"/>
-      <c r="V20" s="169"/>
-      <c r="W20" s="170"/>
-      <c r="X20" s="169"/>
-      <c r="Y20" s="169"/>
-      <c r="Z20" s="169"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="164"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="164"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="77"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
       <c r="AJ20" s="32"/>
     </row>
     <row r="21" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="167" t="s">
+      <c r="A21" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="172" t="s">
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="98" t="s">
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="109"/>
-      <c r="U21" s="169"/>
-      <c r="V21" s="169"/>
-      <c r="W21" s="170"/>
-      <c r="X21" s="169"/>
-      <c r="Y21" s="169"/>
-      <c r="Z21" s="169"/>
-      <c r="AA21" s="163"/>
-      <c r="AB21" s="163"/>
-      <c r="AC21" s="163"/>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="151"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" ht="27" customHeight="1">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="178" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="107" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107" t="s">
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107" t="s">
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107" t="s">
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="194"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
@@ -3070,24 +3161,24 @@
       <c r="AJ22" s="32"/>
     </row>
     <row r="23" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="151"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="112"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="142"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -3106,26 +3197,26 @@
       <c r="AJ23" s="32"/>
     </row>
     <row r="24" spans="1:36" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="144"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="106"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -3147,35 +3238,35 @@
       <c r="A25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147" t="s">
+      <c r="C25" s="108"/>
+      <c r="D25" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="152" t="s">
+      <c r="E25" s="110"/>
+      <c r="F25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="152" t="s">
+      <c r="G25" s="47"/>
+      <c r="H25" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="162"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="152" t="s">
+      <c r="I25" s="91"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="153"/>
-      <c r="M25" s="199" t="s">
+      <c r="L25" s="53"/>
+      <c r="M25" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="200"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="200"/>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="201"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="80"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -3197,23 +3288,23 @@
       <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="203"/>
-      <c r="Q26" s="203"/>
-      <c r="R26" s="204"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="83"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -3235,23 +3326,23 @@
       <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="203"/>
-      <c r="O27" s="203"/>
-      <c r="P27" s="203"/>
-      <c r="Q27" s="203"/>
-      <c r="R27" s="204"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="83"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -3273,23 +3364,23 @@
       <c r="A28" s="27">
         <v>3</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="203"/>
-      <c r="Q28" s="203"/>
-      <c r="R28" s="204"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="83"/>
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -3311,23 +3402,23 @@
       <c r="A29" s="27">
         <v>4</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="203"/>
-      <c r="O29" s="203"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="204"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="83"/>
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -3349,23 +3440,23 @@
       <c r="A30" s="27">
         <v>5</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="203"/>
-      <c r="O30" s="203"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="203"/>
-      <c r="R30" s="204"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="83"/>
       <c r="U30" s="32"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -3387,352 +3478,352 @@
       <c r="A31" s="27">
         <v>6</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="203"/>
-      <c r="O31" s="203"/>
-      <c r="P31" s="203"/>
-      <c r="Q31" s="203"/>
-      <c r="R31" s="204"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="83"/>
     </row>
     <row r="32" spans="1:36" ht="27" customHeight="1">
       <c r="A32" s="27">
         <v>7</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="203"/>
-      <c r="O32" s="203"/>
-      <c r="P32" s="203"/>
-      <c r="Q32" s="203"/>
-      <c r="R32" s="204"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="83"/>
     </row>
     <row r="33" spans="1:18" ht="27" customHeight="1">
       <c r="A33" s="27">
         <v>8</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="203"/>
-      <c r="R33" s="204"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="83"/>
     </row>
     <row r="34" spans="1:18" ht="27" customHeight="1">
       <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="202"/>
-      <c r="N34" s="203"/>
-      <c r="O34" s="203"/>
-      <c r="P34" s="203"/>
-      <c r="Q34" s="203"/>
-      <c r="R34" s="204"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="83"/>
     </row>
     <row r="35" spans="1:18" ht="27" customHeight="1">
       <c r="A35" s="27">
         <v>10</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="203"/>
-      <c r="O35" s="203"/>
-      <c r="P35" s="203"/>
-      <c r="Q35" s="203"/>
-      <c r="R35" s="204"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="83"/>
     </row>
     <row r="36" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="27">
         <v>11</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="205"/>
-      <c r="N36" s="206"/>
-      <c r="O36" s="206"/>
-      <c r="P36" s="206"/>
-      <c r="Q36" s="206"/>
-      <c r="R36" s="207"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="86"/>
     </row>
     <row r="37" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="27">
         <v>12</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="139" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="140"/>
-      <c r="R37" s="141"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103"/>
     </row>
     <row r="38" spans="1:18" ht="27" customHeight="1">
       <c r="A38" s="27">
         <v>13</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="188" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N38" s="160"/>
-      <c r="O38" s="152" t="s">
+      <c r="N38" s="47"/>
+      <c r="O38" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="152" t="s">
+      <c r="P38" s="47"/>
+      <c r="Q38" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="R38" s="153"/>
+      <c r="R38" s="53"/>
     </row>
     <row r="39" spans="1:18" ht="27" customHeight="1">
       <c r="A39" s="27">
         <v>14</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="189"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="195"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="195"/>
-      <c r="R39" s="197"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="54"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A40" s="27">
         <v>15</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="189"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="195"/>
-      <c r="P40" s="190"/>
-      <c r="Q40" s="195"/>
-      <c r="R40" s="197"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="54"/>
     </row>
     <row r="41" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A41" s="27">
         <v>16</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="189"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="195"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="195"/>
-      <c r="R41" s="197"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="54"/>
     </row>
     <row r="42" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A42" s="27">
         <v>17</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="195"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="195"/>
-      <c r="R42" s="197"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="54"/>
     </row>
     <row r="43" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A43" s="33">
         <v>18</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="192"/>
-      <c r="O43" s="196"/>
-      <c r="P43" s="192"/>
-      <c r="Q43" s="196"/>
-      <c r="R43" s="198"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="55"/>
     </row>
     <row r="44" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="122"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="123"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
+      <c r="N44" s="135"/>
+      <c r="O44" s="135"/>
+      <c r="P44" s="135"/>
+      <c r="Q44" s="135"/>
+      <c r="R44" s="136"/>
     </row>
     <row r="45" spans="1:18" ht="17.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="61" t="s">
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="130"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="131" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17.25">
-      <c r="A46" s="156"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="88"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="26" t="s">
         <v>0</v>
       </c>
@@ -3769,17 +3860,17 @@
       <c r="O46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P46" s="120" t="s">
+      <c r="P46" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="119"/>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="132"/>
     </row>
     <row r="47" spans="1:18" ht="27" customHeight="1">
-      <c r="A47" s="154" t="s">
+      <c r="A47" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="125" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -3797,13 +3888,13 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="174"/>
-      <c r="Q47" s="175"/>
-      <c r="R47" s="36"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="202"/>
     </row>
     <row r="48" spans="1:18" ht="27" customHeight="1">
-      <c r="A48" s="155"/>
-      <c r="B48" s="116"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="22" t="s">
         <v>24</v>
       </c>
@@ -3819,9 +3910,9 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="176"/>
-      <c r="Q48" s="177"/>
-      <c r="R48" s="37"/>
+      <c r="P48" s="206"/>
+      <c r="Q48" s="207"/>
+      <c r="R48" s="203"/>
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1">
       <c r="A49" s="20" t="s">
@@ -3845,8 +3936,8 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="176"/>
-      <c r="Q49" s="177"/>
+      <c r="P49" s="206"/>
+      <c r="Q49" s="207"/>
       <c r="R49" s="35"/>
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1">
@@ -3871,8 +3962,8 @@
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="176"/>
-      <c r="Q50" s="177"/>
+      <c r="P50" s="206"/>
+      <c r="Q50" s="207"/>
       <c r="R50" s="35"/>
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1">
@@ -3897,12 +3988,12 @@
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="176"/>
-      <c r="Q51" s="177"/>
+      <c r="P51" s="206"/>
+      <c r="Q51" s="207"/>
       <c r="R51" s="35"/>
     </row>
     <row r="52" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="139" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -3923,12 +4014,12 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
       <c r="O52" s="30"/>
-      <c r="P52" s="176"/>
-      <c r="Q52" s="177"/>
-      <c r="R52" s="36"/>
+      <c r="P52" s="206"/>
+      <c r="Q52" s="207"/>
+      <c r="R52" s="202"/>
     </row>
     <row r="53" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A53" s="38"/>
+      <c r="A53" s="139"/>
       <c r="B53" s="21" t="s">
         <v>95</v>
       </c>
@@ -3947,15 +4038,15 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
-      <c r="P53" s="176"/>
-      <c r="Q53" s="177"/>
-      <c r="R53" s="37"/>
+      <c r="P53" s="206"/>
+      <c r="Q53" s="207"/>
+      <c r="R53" s="203"/>
     </row>
     <row r="54" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="125" t="s">
         <v>92</v>
       </c>
       <c r="C54" s="34" t="s">
@@ -3973,13 +4064,13 @@
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
-      <c r="P54" s="176"/>
-      <c r="Q54" s="177"/>
-      <c r="R54" s="36"/>
+      <c r="P54" s="206"/>
+      <c r="Q54" s="207"/>
+      <c r="R54" s="202"/>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="125"/>
       <c r="C55" s="34" t="s">
         <v>24</v>
       </c>
@@ -3995,15 +4086,15 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
-      <c r="P55" s="176"/>
-      <c r="Q55" s="177"/>
-      <c r="R55" s="37"/>
+      <c r="P55" s="206"/>
+      <c r="Q55" s="207"/>
+      <c r="R55" s="203"/>
     </row>
     <row r="56" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="125" t="s">
         <v>93</v>
       </c>
       <c r="C56" s="34">
@@ -4021,13 +4112,13 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
-      <c r="P56" s="176"/>
-      <c r="Q56" s="177"/>
-      <c r="R56" s="36"/>
+      <c r="P56" s="206"/>
+      <c r="Q56" s="207"/>
+      <c r="R56" s="202"/>
     </row>
     <row r="57" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="125"/>
       <c r="C57" s="34">
         <v>600</v>
       </c>
@@ -4043,15 +4134,15 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="176"/>
-      <c r="Q57" s="177"/>
-      <c r="R57" s="37"/>
+      <c r="P57" s="206"/>
+      <c r="Q57" s="207"/>
+      <c r="R57" s="203"/>
     </row>
     <row r="58" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="125" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="34" t="s">
@@ -4069,13 +4160,13 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="176"/>
-      <c r="Q58" s="177"/>
-      <c r="R58" s="36"/>
+      <c r="P58" s="206"/>
+      <c r="Q58" s="207"/>
+      <c r="R58" s="202"/>
     </row>
     <row r="59" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="34" t="s">
         <v>52</v>
       </c>
@@ -4091,16 +4182,16 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
-      <c r="P59" s="176"/>
-      <c r="Q59" s="177"/>
-      <c r="R59" s="37"/>
+      <c r="P59" s="206"/>
+      <c r="Q59" s="207"/>
+      <c r="R59" s="203"/>
     </row>
     <row r="60" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
+      <c r="B60" s="176"/>
+      <c r="C60" s="182"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4113,165 +4204,165 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="176"/>
-      <c r="Q60" s="177"/>
+      <c r="P60" s="206"/>
+      <c r="Q60" s="207"/>
       <c r="R60" s="25"/>
     </row>
     <row r="61" spans="1:18" ht="21.95" customHeight="1">
-      <c r="A61" s="129" t="s">
+      <c r="A61" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="130"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="130"/>
-      <c r="O61" s="130"/>
-      <c r="P61" s="130"/>
-      <c r="Q61" s="130"/>
-      <c r="R61" s="131"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="127"/>
+      <c r="M61" s="127"/>
+      <c r="N61" s="127"/>
+      <c r="O61" s="127"/>
+      <c r="P61" s="127"/>
+      <c r="Q61" s="127"/>
+      <c r="R61" s="128"/>
     </row>
     <row r="62" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A62" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="127"/>
-      <c r="C62" s="39" t="s">
+      <c r="A62" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="123"/>
+      <c r="C62" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="116"/>
-      <c r="E62" s="88">
+      <c r="D62" s="119"/>
+      <c r="E62" s="38">
         <v>1</v>
       </c>
-      <c r="F62" s="89"/>
-      <c r="G62" s="88">
+      <c r="F62" s="39"/>
+      <c r="G62" s="38">
         <v>2</v>
       </c>
-      <c r="H62" s="89"/>
-      <c r="I62" s="116">
+      <c r="H62" s="39"/>
+      <c r="I62" s="119">
         <v>3</v>
       </c>
-      <c r="J62" s="116"/>
-      <c r="K62" s="161">
+      <c r="J62" s="119"/>
+      <c r="K62" s="90">
         <v>4</v>
       </c>
-      <c r="L62" s="89"/>
-      <c r="M62" s="116">
+      <c r="L62" s="39"/>
+      <c r="M62" s="119">
         <v>5</v>
       </c>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116">
+      <c r="N62" s="119"/>
+      <c r="O62" s="119">
         <v>6</v>
       </c>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116" t="s">
+      <c r="P62" s="119"/>
+      <c r="Q62" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="R62" s="128"/>
+      <c r="R62" s="57"/>
     </row>
     <row r="63" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A63" s="126" t="s">
+      <c r="A63" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="127"/>
-      <c r="C63" s="39" t="s">
+      <c r="B63" s="123"/>
+      <c r="C63" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="116"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="115"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="128"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="119"/>
+      <c r="R63" s="57"/>
     </row>
     <row r="64" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A64" s="126" t="s">
+      <c r="A64" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="127"/>
-      <c r="C64" s="116" t="s">
+      <c r="B64" s="123"/>
+      <c r="C64" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="116"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="128"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="119"/>
+      <c r="N64" s="119"/>
+      <c r="O64" s="119"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="119"/>
+      <c r="R64" s="57"/>
     </row>
     <row r="65" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A65" s="136" t="s">
+      <c r="A65" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="137"/>
-      <c r="C65" s="116" t="s">
+      <c r="B65" s="121"/>
+      <c r="C65" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="116"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="116"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="128"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="119"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="119"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="119"/>
+      <c r="R65" s="57"/>
     </row>
     <row r="66" spans="1:18" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A66" s="133" t="s">
+      <c r="A66" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="134"/>
-      <c r="C66" s="135" t="s">
+      <c r="B66" s="116"/>
+      <c r="C66" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="135"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="91"/>
-      <c r="P66" s="91"/>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="138"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="118"/>
+      <c r="N66" s="118"/>
+      <c r="O66" s="118"/>
+      <c r="P66" s="118"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="58"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1">
       <c r="A67" s="12"/>
@@ -4695,18 +4786,305 @@
     </row>
   </sheetData>
   <mergeCells count="335">
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="P47:Q60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="M25:R36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="M41:N41"/>
@@ -4731,305 +5109,18 @@
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="AA20:AB21"/>
-    <mergeCell ref="M25:R36"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="A61:R61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="P47:Q60"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5040,14 +5131,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822DE0DA-CE07-4E9A-9B9B-F80CAAB373AD}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.140625" style="208" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="208" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="208" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="208" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="208" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="208" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="208" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="208" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="208" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="208" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="208" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="208" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="208" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="208" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="208" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="208" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>